--- a/CodeChanges.xlsx
+++ b/CodeChanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanketh\Github\CsvToVcf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryl\Documents\GitHub\CsvToVcf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF0558-6FD0-4E8C-A75E-9FF8730797F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E39CA-3D4C-4138-A436-2640A38E8F17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 7 Jan 2020" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Sl. No</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Implement bootstrap 4 for your layouts, and form controls</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Fuck you</t>
   </si>
 </sst>
 </file>
@@ -126,10 +132,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,33 +420,33 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -448,119 +454,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -568,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -576,7 +600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -584,7 +608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -600,5 +624,6 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CodeChanges.xlsx
+++ b/CodeChanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryl\Documents\GitHub\CsvToVcf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Visual Studio 2019\Trial\Sample\CsvToVcf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E39CA-3D4C-4138-A436-2640A38E8F17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A8649-79FA-4041-AD85-D0DC5E796B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 7 Jan 2020" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Sl. No</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +492,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -540,6 +543,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -596,6 +602,9 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
@@ -603,6 +612,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>

--- a/CodeChanges.xlsx
+++ b/CodeChanges.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Visual Studio 2019\Trial\Sample\CsvToVcf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanketh\Github\CsvToVcf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A8649-79FA-4041-AD85-D0DC5E796B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAE216-EB8D-41F5-B732-5F6910991675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 7 Jan 2020" sheetId="1" r:id="rId1"/>
+    <sheet name="2. 25 Jan 2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Sl. No</t>
   </si>
@@ -91,13 +92,49 @@
   </si>
   <si>
     <t>Fuck you</t>
+  </si>
+  <si>
+    <t>Index.cshtml</t>
+  </si>
+  <si>
+    <t>The error response should not be a new page. It should be an alert (JS)</t>
+  </si>
+  <si>
+    <t>Move all logic to Models. Controller's job should only be to send/fetch data to/from models</t>
+  </si>
+  <si>
+    <t>Implement try catch around the logic</t>
+  </si>
+  <si>
+    <t>16-22</t>
+  </si>
+  <si>
+    <t>Wrap it within a try catch</t>
+  </si>
+  <si>
+    <t>Implement ReturnObject&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>No need for a form around the Download link</t>
+  </si>
+  <si>
+    <t>No need for different convert and download buttons. No one will just want to convert</t>
+  </si>
+  <si>
+    <t>DatatableToVcf.cs</t>
+  </si>
+  <si>
+    <t>HomeController.cs</t>
+  </si>
+  <si>
+    <t>Delete all csv files once it has been successfully dowloaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +142,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,6 +186,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,34 +481,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -454,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -505,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -522,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -539,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -556,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -573,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -590,15 +652,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -609,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -620,10 +685,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -638,4 +704,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543CE4F-1F79-473A-A78D-9CF2A08AB5B1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C3:E6">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeChanges.xlsx
+++ b/CodeChanges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanketh\Github\CsvToVcf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Visual Studio 2019\Trial\Sample\CsvToVcf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAE216-EB8D-41F5-B732-5F6910991675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3F018-C7BF-48A7-A113-7988B4F4E4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 7 Jan 2020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Sl. No</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Delete all csv files once it has been successfully dowloaded</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Kinda</t>
+  </si>
+  <si>
+    <t>Nope</t>
   </si>
 </sst>
 </file>
@@ -485,15 +494,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -533,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -550,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -567,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -584,7 +593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -601,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -618,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -635,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -652,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -663,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -674,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -685,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -711,18 +720,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -737,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
@@ -748,10 +757,13 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -762,10 +774,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
@@ -776,9 +791,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -788,10 +806,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -802,10 +823,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
@@ -813,9 +837,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -824,32 +851,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:E6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:E6">
     <sortCondition ref="C3"/>
   </sortState>
   <mergeCells count="1">

--- a/CodeChanges.xlsx
+++ b/CodeChanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Visual Studio 2019\Trial\Sample\CsvToVcf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryl\Documents\GitHub\CsvToVcf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3F018-C7BF-48A7-A113-7988B4F4E4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD23B49-AA14-4687-B51E-5F99C6F65A5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 7 Jan 2020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Sl. No</t>
   </si>
@@ -136,7 +136,13 @@
     <t>Kinda</t>
   </si>
   <si>
-    <t>Nope</t>
+    <t>I still have a question</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>I did some tweaking by changing the boostrap classes in  layout.cshtml</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543CE4F-1F79-473A-A78D-9CF2A08AB5B1}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,10 +737,11 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -745,8 +755,11 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
@@ -757,7 +770,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -774,12 +787,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -791,11 +804,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
@@ -806,7 +819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -823,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -837,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -851,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -862,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -872,8 +885,11 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
